--- a/Project Planning/Project Plan.xlsx
+++ b/Project Planning/Project Plan.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YZN\Desktop\uOttawa_Teaching\CSI4142\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\GitHub\Data-Science-Term-Project\Project Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D198629D-46CF-4674-B118-D6AEF7EFADE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042C7EEC-BDFF-4E65-B70A-CA1BEFE8C3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Project Title</t>
   </si>
@@ -52,13 +63,125 @@
   </si>
   <si>
     <t>Team lead name</t>
+  </si>
+  <si>
+    <t>Alexander De Furia, Jacob Kszan, Malte Blomqvist</t>
+  </si>
+  <si>
+    <t>Jacob Kszan</t>
+  </si>
+  <si>
+    <t>jksza042@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Analyzing provincially incurred costs from wildfire's over time. Determining the trends of wildfire costs from frequency of fires, intensity of said fires, average humidity, windspeed, and average temperature. These costs inform the growing burden and economic cost of protecting the general public and natural landscape from the consequences of wildfires and climate change.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>National Firepoint Database:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://cwfis.cfs.nrcan.gc.ca/datamart/download/nfdbpn</t>
+    </r>
+  </si>
+  <si>
+    <t>Analyzing Determinants of Wildfires and their Costs Across Canada</t>
+  </si>
+  <si>
+    <t>This project will be comparing wildfires to the corresponding weather data (Temperature, Humidity, Windspeed etc) from the nearest climate monitoring station. We have start and end date of wildfires from Dataset 2 and daily weather data from dataset 3. We will also be analyzing the frequency and intensity of fires and its effect on the annual fixed and variable costs for each province from dataset 1. By polling weather data from the nearest weather station over the duration of the fire we hope to investigate correlations between weather and fire intensity and size as a proxy for cost. By taking historical trends across Canada we can investigate the response of different agencies to increasingly challenging circumstances.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. Fire point Dataset (By Day and Time): </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://cwfis.cfs.nrcan.gc.ca/datamart/download/nfdbpnt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; 2. Budgetary Dataset (Annually By Province): </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://tspace.library.utoronto.ca/handle/1807/73430;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3. Climate Station Dataset (By Day):</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://climatedata.ca/download/#station-download</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +193,35 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -267,12 +419,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -284,33 +437,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -323,11 +449,54 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -608,20 +777,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="35.109375" customWidth="1"/>
+    <col min="10" max="10" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -631,10 +803,12 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -644,10 +818,12 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -657,10 +833,12 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -670,10 +848,12 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -683,10 +863,12 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="2:10" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -696,213 +878,222 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
+      <c r="C8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="16"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="16"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="16"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="16"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="20"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="16"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="16"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="23"/>
     </row>
     <row r="18" spans="2:10" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="4"/>
+      <c r="C18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="C19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="18"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="18"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B22" s="18"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="18"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="18"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="C19:J24"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="C5:J5"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="C8:J17"/>
     <mergeCell ref="B8:B17"/>
     <mergeCell ref="C7:J7"/>
     <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="C19:J24"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="C5:J5"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{69E844F3-C7D1-4D70-B4A3-6D3BFF253CEC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId2"/>
 </worksheet>
 </file>